--- a/data/output/FV2310_FV2304/UTILTS/25005.xlsx
+++ b/data/output/FV2310_FV2304/UTILTS/25005.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="196">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="196">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -763,6 +763,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U93" totalsRowShown="0">
+  <autoFilter ref="A1:U93"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,7 +1082,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5048,5 +5081,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/UTILTS/25005.xlsx
+++ b/data/output/FV2310_FV2304/UTILTS/25005.xlsx
@@ -1023,7 +1023,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1046,6 +1046,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1054,6 +1057,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1494,7 +1500,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1830,7 +1836,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1966,7 +1972,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2154,7 +2160,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2450,7 +2456,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2634,7 +2640,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2994,7 +3000,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3268,22 +3274,22 @@
       <c r="V38" s="5"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
         <v>147</v>
       </c>
       <c r="K39" s="6" t="s">
@@ -3292,19 +3298,19 @@
       <c r="L39" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5" t="s">
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2" t="s">
         <v>147</v>
       </c>
       <c r="V39" s="6" t="s">
@@ -3462,22 +3468,22 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M43" s="5"/>
@@ -3495,27 +3501,27 @@
       <c r="A44" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M44" s="5"/>
@@ -3533,29 +3539,29 @@
       <c r="A45" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="J45" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M45" s="5"/>
@@ -3576,22 +3582,22 @@
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M46" s="5"/>
@@ -3609,31 +3615,31 @@
       <c r="A47" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="9"/>
+      <c r="I47" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="9" t="s">
+      <c r="J47" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M47" s="5"/>
@@ -3651,31 +3657,31 @@
       <c r="A48" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M48" s="5"/>
@@ -3693,31 +3699,31 @@
       <c r="A49" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="9"/>
+      <c r="I49" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J49" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="9" t="s">
+      <c r="J49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M49" s="5"/>
@@ -3738,24 +3744,24 @@
       <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K50" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M50" s="5"/>
@@ -3773,31 +3779,31 @@
       <c r="A51" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M51" s="5"/>
@@ -3815,29 +3821,29 @@
       <c r="A52" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M52" s="5"/>
@@ -3855,31 +3861,31 @@
       <c r="A53" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M53" s="5"/>
@@ -3907,27 +3913,27 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="10" t="s">
+      <c r="L54" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O54" s="11" t="s">
+      <c r="O54" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11" t="s">
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="V54" s="11"/>
+      <c r="V54" s="13"/>
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
@@ -3943,33 +3949,33 @@
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="N55" s="11" t="s">
+      <c r="N55" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O55" s="11" t="s">
+      <c r="O55" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P55" s="11" t="s">
+      <c r="P55" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11" t="s">
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="S55" s="11"/>
-      <c r="T55" s="11" t="s">
+      <c r="S55" s="13"/>
+      <c r="T55" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U55" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="V55" s="11"/>
+      <c r="U55" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -3985,31 +3991,31 @@
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="N56" s="11" t="s">
+      <c r="N56" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="11" t="s">
+      <c r="O56" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P56" s="11" t="s">
+      <c r="P56" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11" t="s">
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="U56" s="11" t="s">
+      <c r="U56" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="V56" s="11" t="s">
+      <c r="V56" s="13" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4027,27 +4033,27 @@
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="N57" s="11" t="s">
+      <c r="N57" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O57" s="11" t="s">
+      <c r="O57" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11" t="s">
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="V57" s="11"/>
+      <c r="V57" s="13"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4063,33 +4069,33 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P58" s="11" t="s">
+      <c r="P58" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11" t="s">
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11" t="s">
+      <c r="S58" s="13"/>
+      <c r="T58" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="U58" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="V58" s="11"/>
+      <c r="U58" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V58" s="13"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -4105,31 +4111,31 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Q59" s="11"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="U59" s="11" t="s">
+      <c r="U59" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="V59" s="11" t="s">
+      <c r="V59" s="13" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4147,33 +4153,33 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11" t="s">
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U60" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="V60" s="11"/>
+      <c r="U60" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4189,27 +4195,27 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="V61" s="11" t="s">
+      <c r="V61" s="13" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4227,33 +4233,33 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11" t="s">
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4269,31 +4275,31 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="U63" s="11" t="s">
+      <c r="U63" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="V63" s="11" t="s">
+      <c r="V63" s="13" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4311,33 +4317,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="2" t="s">
@@ -4362,7 +4368,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -4568,7 +4574,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -4760,7 +4766,7 @@
         <v>167</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -4938,22 +4944,22 @@
       <c r="B77" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M77" s="5"/>
@@ -4971,25 +4977,25 @@
       <c r="A78" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8" t="s">
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="K78" s="8"/>
-      <c r="L78" s="9" t="s">
+      <c r="K78" s="9"/>
+      <c r="L78" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M78" s="5"/>
@@ -5007,27 +5013,27 @@
       <c r="A79" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8" t="s">
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="K79" s="8"/>
-      <c r="L79" s="9" t="s">
+      <c r="K79" s="9"/>
+      <c r="L79" s="10" t="s">
         <v>173</v>
       </c>
       <c r="M79" s="5"/>
@@ -5055,25 +5061,25 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M80" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N80" s="11" t="s">
+      <c r="N80" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11"/>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11" t="s">
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="V80" s="11" t="s">
+      <c r="V80" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5091,27 +5097,27 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="11"/>
-      <c r="R81" s="11"/>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11" t="s">
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="V81" s="11"/>
+      <c r="V81" s="13"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -5127,33 +5133,33 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="11" t="s">
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11" t="s">
+      <c r="S82" s="13"/>
+      <c r="T82" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="U82" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="V82" s="11"/>
+      <c r="U82" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V82" s="13"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="2" t="s">
@@ -5178,7 +5184,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -5448,7 +5454,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -5592,7 +5598,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N91" s="2"/>
